--- a/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det2  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det2  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.29280551904881</v>
+        <v>19.12075701903682</v>
       </c>
       <c r="D2" t="n">
         <v>0.006944391349456487</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02111450030030732</v>
+        <v>0.01982943797740053</v>
       </c>
       <c r="F2" t="n">
-        <v>15.04196773582727</v>
+        <v>6.94746946166665</v>
       </c>
       <c r="G2" t="n">
-        <v>14.45904704525062</v>
+        <v>5.138888063632246</v>
       </c>
       <c r="H2" t="n">
-        <v>15.58979489944301</v>
+        <v>9.401137236739489</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002177453158359751</v>
+        <v>0.00231147349769847</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0008774583223777173</v>
+        <v>0.0008074615548642856</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003387971136665313</v>
+        <v>0.003346558989260584</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01956690785845226</v>
+        <v>0.009827919301656317</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01374690917525859</v>
+        <v>0.007836072250056482</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02617241597168249</v>
+        <v>0.01236402518280967</v>
       </c>
     </row>
     <row r="3">
@@ -557,40 +557,86 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05063116607513096</v>
+        <v>0.04981522627320694</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0489062734933936</v>
+        <v>0.04815098319456564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05076829414557697</v>
+        <v>0.0499839736740351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09448326651680553</v>
+        <v>0.1355894329601918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0395556309055207</v>
+        <v>0.002638118362494868</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1615624117683082</v>
+        <v>0.3231669579907591</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04998474955458611</v>
+        <v>0.125572212602547</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02489445624850094</v>
+        <v>0.002461095202072723</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08120028755021412</v>
+        <v>0.2987976006760024</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03522035696624247</v>
+        <v>0.1426215752832571</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01843170259280466</v>
+        <v>0.002754788459134767</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05749136865554694</v>
+        <v>0.3405286356767039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19.17057224531003</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05509537454402212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06981341165143562</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.083058894626841</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.14152618199474</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.724304194730248</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1278836861002454</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.003268556756937009</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3021441596652629</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1524494945849134</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01059086070919125</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3528926608595136</v>
       </c>
     </row>
   </sheetData>
